--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H2">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N2">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P2">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q2">
-        <v>1243.210244119543</v>
+        <v>1662.472859481064</v>
       </c>
       <c r="R2">
-        <v>1243.210244119543</v>
+        <v>14962.25573532958</v>
       </c>
       <c r="S2">
-        <v>0.2832869377373516</v>
+        <v>0.2722571119333015</v>
       </c>
       <c r="T2">
-        <v>0.2832869377373516</v>
+        <v>0.2722571119333015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H3">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P3">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q3">
-        <v>1345.496100138338</v>
+        <v>1781.196140787212</v>
       </c>
       <c r="R3">
-        <v>1345.496100138338</v>
+        <v>16030.76526708491</v>
       </c>
       <c r="S3">
-        <v>0.3065945376083046</v>
+        <v>0.2916999903558379</v>
       </c>
       <c r="T3">
-        <v>0.3065945376083046</v>
+        <v>0.291699990355838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H4">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N4">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P4">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q4">
-        <v>471.3941047445361</v>
+        <v>688.2253483934352</v>
       </c>
       <c r="R4">
-        <v>471.3941047445361</v>
+        <v>6194.028135540917</v>
       </c>
       <c r="S4">
-        <v>0.1074152928132397</v>
+        <v>0.112708153185355</v>
       </c>
       <c r="T4">
-        <v>0.1074152928132397</v>
+        <v>0.112708153185355</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H5">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J5">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N5">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P5">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q5">
-        <v>584.9919913817797</v>
+        <v>808.497086550059</v>
       </c>
       <c r="R5">
-        <v>584.9919913817797</v>
+        <v>7276.473778950531</v>
       </c>
       <c r="S5">
-        <v>0.1333005343410639</v>
+        <v>0.1324046167342046</v>
       </c>
       <c r="T5">
-        <v>0.1333005343410639</v>
+        <v>0.1324046167342047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N6">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P6">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q6">
-        <v>68.58294508382765</v>
+        <v>70.66674723491823</v>
       </c>
       <c r="R6">
-        <v>68.58294508382765</v>
+        <v>636.000725114264</v>
       </c>
       <c r="S6">
-        <v>0.01562780920259075</v>
+        <v>0.01157283525091954</v>
       </c>
       <c r="T6">
-        <v>0.01562780920259075</v>
+        <v>0.01157283525091954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P7">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q7">
-        <v>74.22564733742553</v>
+        <v>75.71331871012445</v>
       </c>
       <c r="R7">
-        <v>74.22564733742553</v>
+        <v>681.4198683911201</v>
       </c>
       <c r="S7">
-        <v>0.01691359642124215</v>
+        <v>0.01239929384070578</v>
       </c>
       <c r="T7">
-        <v>0.01691359642124215</v>
+        <v>0.01239929384070578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J8">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N8">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P8">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q8">
-        <v>26.00493050266879</v>
+        <v>29.25440043019023</v>
       </c>
       <c r="R8">
-        <v>26.00493050266879</v>
+        <v>263.2896038717121</v>
       </c>
       <c r="S8">
-        <v>0.005925672799930143</v>
+        <v>0.004790886375703053</v>
       </c>
       <c r="T8">
-        <v>0.005925672799930143</v>
+        <v>0.004790886375703054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J9">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N9">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P9">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q9">
-        <v>32.27167231704191</v>
+        <v>34.36679217321779</v>
       </c>
       <c r="R9">
-        <v>32.27167231704191</v>
+        <v>309.30112955896</v>
       </c>
       <c r="S9">
-        <v>0.007353658216380485</v>
+        <v>0.005628124110496999</v>
       </c>
       <c r="T9">
-        <v>0.007353658216380485</v>
+        <v>0.005628124110497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H10">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J10">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.1803899858649</v>
+        <v>43.69574966666666</v>
       </c>
       <c r="N10">
-        <v>43.1803899858649</v>
+        <v>131.087249</v>
       </c>
       <c r="O10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="P10">
-        <v>0.3410641196217529</v>
+        <v>0.3365063034544351</v>
       </c>
       <c r="Q10">
-        <v>184.9733429990416</v>
+        <v>321.6555557124983</v>
       </c>
       <c r="R10">
-        <v>184.9733429990416</v>
+        <v>2894.900001412484</v>
       </c>
       <c r="S10">
-        <v>0.04214937268181054</v>
+        <v>0.052676356270214</v>
       </c>
       <c r="T10">
-        <v>0.04214937268181054</v>
+        <v>0.05267635627021401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H11">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J11">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.7330820376084</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
-        <v>46.7330820376084</v>
+        <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727266</v>
       </c>
       <c r="P11">
-        <v>0.3691253712063667</v>
+        <v>0.3605374521727267</v>
       </c>
       <c r="Q11">
-        <v>200.1921338824088</v>
+        <v>344.6261580936167</v>
       </c>
       <c r="R11">
-        <v>200.1921338824088</v>
+        <v>3101.63542284255</v>
       </c>
       <c r="S11">
-        <v>0.04561723717682</v>
+        <v>0.05643816797618292</v>
       </c>
       <c r="T11">
-        <v>0.04561723717682</v>
+        <v>0.05643816797618293</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H12">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J12">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.3729195252267</v>
+        <v>18.08903066666667</v>
       </c>
       <c r="N12">
-        <v>16.3729195252267</v>
+        <v>54.26709200000001</v>
       </c>
       <c r="O12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="P12">
-        <v>0.1293229492678794</v>
+        <v>0.1393058338430899</v>
       </c>
       <c r="Q12">
-        <v>70.13724656555581</v>
+        <v>133.1579674401534</v>
       </c>
       <c r="R12">
-        <v>70.13724656555581</v>
+        <v>1198.42170696138</v>
       </c>
       <c r="S12">
-        <v>0.01598198365470946</v>
+        <v>0.02180679428203182</v>
       </c>
       <c r="T12">
-        <v>0.01598198365470946</v>
+        <v>0.02180679428203182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.28373488659071</v>
+        <v>7.361255</v>
       </c>
       <c r="H13">
-        <v>4.28373488659071</v>
+        <v>22.083765</v>
       </c>
       <c r="I13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="J13">
-        <v>0.1235819608598966</v>
+        <v>0.1565389882134754</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3185120505201</v>
+        <v>21.25020333333334</v>
       </c>
       <c r="N13">
-        <v>20.3185120505201</v>
+        <v>63.75061</v>
       </c>
       <c r="O13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="P13">
-        <v>0.1604875599040009</v>
+        <v>0.1636504105297484</v>
       </c>
       <c r="Q13">
-        <v>87.03911891442669</v>
+        <v>156.4281655385167</v>
       </c>
       <c r="R13">
-        <v>87.03911891442669</v>
+        <v>1407.85348984665</v>
       </c>
       <c r="S13">
-        <v>0.01983336734655654</v>
+        <v>0.0256176696850467</v>
       </c>
       <c r="T13">
-        <v>0.01983336734655654</v>
+        <v>0.0256176696850467</v>
       </c>
     </row>
   </sheetData>
